--- a/mallar/Protokoll_2016_skritt_lag_sv-r_mellan - Copy_mixklass.XLSX
+++ b/mallar/Protokoll_2016_skritt_lag_sv-r_mellan - Copy_mixklass.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042802DC-F420-4179-9019-82FB6BD63857}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5460" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="33" r:id="rId1"/>
@@ -36,6 +37,10 @@
     <definedName name="firstvaulter" localSheetId="4">'Skritt lagkür'!$I$7</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Skritt mellan grund'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Skritt srlag grund'!$H$7</definedName>
+    <definedName name="Hästpoäng" localSheetId="2">'Skritt jrlag grund '!$K$34</definedName>
+    <definedName name="Hästpoäng" localSheetId="4">'Skritt lagkür'!$L$21</definedName>
+    <definedName name="Hästpoäng" localSheetId="1">'Skritt mellan grund'!$K$35</definedName>
+    <definedName name="Hästpoäng" localSheetId="3">'Skritt srlag grund'!$K$34</definedName>
     <definedName name="id" localSheetId="2">'Skritt jrlag grund '!$L$2</definedName>
     <definedName name="id" localSheetId="4">'Skritt lagkür'!$M$2</definedName>
     <definedName name="id" localSheetId="1">'Skritt mellan grund'!$L$2</definedName>
@@ -53,7 +58,14 @@
     <definedName name="result" localSheetId="1">'Skritt mellan grund'!$K$38</definedName>
     <definedName name="result" localSheetId="3">'Skritt srlag grund'!$K$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -382,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1130,83 +1142,34 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1234,6 +1197,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,55 +1230,198 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1318,129 +1430,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Dezimal 2" xfId="1"/>
-    <cellStyle name="Dezimal 2 2" xfId="3"/>
+    <cellStyle name="Dezimal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Standard 2" xfId="2"/>
-    <cellStyle name="Tusental 2" xfId="6"/>
-    <cellStyle name="Tusental 3" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tusental 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Tusental 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1860,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1973,11 +1985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A24" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2019,8 +2031,8 @@
         <v>9</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="20"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
@@ -2035,9 +2047,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -2059,83 +2071,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="170"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -2165,11 +2177,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2183,11 +2195,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2201,11 +2213,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2219,12 +2231,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2237,11 +2249,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2255,12 +2267,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2356,91 +2368,91 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="164" t="s">
+      <c r="G28" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="165"/>
-      <c r="I28" s="166" t="s">
+      <c r="H28" s="128"/>
+      <c r="I28" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="157" t="s">
+      <c r="D29" s="132"/>
+      <c r="E29" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="161">
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148">
         <v>0.2</v>
       </c>
-      <c r="J29" s="149"/>
-      <c r="K29" s="151">
+      <c r="J29" s="134"/>
+      <c r="K29" s="136">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="147" t="s">
+      <c r="A30" s="173"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="153" t="s">
+      <c r="D30" s="132"/>
+      <c r="E30" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="154"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="151"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="136"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="153" t="s">
+      <c r="D31" s="133"/>
+      <c r="E31" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="152"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="137"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="137" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="138"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -2451,18 +2463,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="133"/>
-      <c r="B33" s="141" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="144" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="145"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141"/>
       <c r="I33" s="51">
         <v>0.4</v>
       </c>
@@ -2476,16 +2488,16 @@
       <c r="A34" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="124"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="53"/>
       <c r="K34" s="54"/>
     </row>
@@ -2581,32 +2593,6 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:I31"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="A15:C15"/>
@@ -2623,6 +2609,32 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -2646,11 +2658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="F1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="F27" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2711,9 +2723,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -2735,83 +2747,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="170"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -2841,11 +2853,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2859,11 +2871,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2877,11 +2889,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2895,11 +2907,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2913,11 +2925,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2949,11 +2961,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3019,91 +3031,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="164" t="s">
+      <c r="G27" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="167"/>
-      <c r="K27" s="168"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="157" t="s">
+      <c r="D28" s="132"/>
+      <c r="E28" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161">
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148">
         <v>0.2</v>
       </c>
-      <c r="J28" s="149"/>
-      <c r="K28" s="151">
+      <c r="J28" s="134"/>
+      <c r="K28" s="136">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147" t="s">
+      <c r="A29" s="173"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="153" t="s">
+      <c r="D29" s="132"/>
+      <c r="E29" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="154"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="151"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148" t="s">
+      <c r="A30" s="162"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="153" t="s">
+      <c r="D30" s="133"/>
+      <c r="E30" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="152"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="137"/>
     </row>
     <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="141"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3114,18 +3126,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="133"/>
-      <c r="B32" s="141" t="s">
+      <c r="A32" s="162"/>
+      <c r="B32" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144" t="s">
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="145"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3139,16 +3151,16 @@
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
@@ -3232,6 +3244,34 @@
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:I30"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A19:C19"/>
@@ -3245,34 +3285,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
@@ -3296,11 +3308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="E1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="E28" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3363,9 +3375,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>8</v>
@@ -3387,83 +3399,83 @@
         <v>11</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="G7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="172"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
       <c r="G8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="G9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="170"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -3493,11 +3505,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3511,11 +3523,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3529,11 +3541,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3547,11 +3559,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3601,12 +3613,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -3678,91 +3690,91 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="164" t="s">
+      <c r="G27" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="167"/>
-      <c r="K27" s="168"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="132" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="177"/>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="161">
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148">
         <v>0.2</v>
       </c>
-      <c r="J28" s="149"/>
-      <c r="K28" s="151">
+      <c r="J28" s="134"/>
+      <c r="K28" s="136">
         <f>J28*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="177" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="177"/>
-      <c r="E29" s="153" t="s">
+      <c r="E29" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="154"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="151"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="133"/>
-      <c r="B30" s="148"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="178"/>
-      <c r="E30" s="153" t="s">
+      <c r="E30" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="152"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="137"/>
     </row>
     <row r="31" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="137" t="s">
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="141"/>
       <c r="I31" s="51">
         <v>0.4</v>
       </c>
@@ -3773,18 +3785,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="133"/>
-      <c r="B32" s="141" t="s">
+      <c r="A32" s="162"/>
+      <c r="B32" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144" t="s">
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="145"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
       <c r="I32" s="51">
         <v>0.4</v>
       </c>
@@ -3798,16 +3810,16 @@
       <c r="A33" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="53"/>
       <c r="K33" s="54"/>
     </row>
@@ -3891,17 +3903,23 @@
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="C29:D29"/>
@@ -3914,23 +3932,17 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="K28:K35">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -3954,11 +3966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4006,9 +4018,9 @@
         <v>9</v>
       </c>
       <c r="B4" s="83"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="84"/>
       <c r="H4" s="78"/>
       <c r="I4" s="79" t="s">
@@ -4023,10 +4035,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="85"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79" t="s">
         <v>8</v>
@@ -4048,87 +4060,87 @@
         <v>11</v>
       </c>
       <c r="B7" s="85"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
       <c r="H7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="219"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
       <c r="H8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="217"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
       <c r="H9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="217"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="182"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="85"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
       <c r="H10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="217"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="217"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
       <c r="H12" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="217"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
@@ -4144,95 +4156,95 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="164" t="s">
+      <c r="H14" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="165"/>
-      <c r="J14" s="166" t="s">
+      <c r="I14" s="128"/>
+      <c r="J14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="167"/>
-      <c r="L14" s="168"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="194" t="s">
+      <c r="A15" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="199" t="s">
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161">
+      <c r="G15" s="191"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148">
         <v>0.2</v>
       </c>
-      <c r="K15" s="206"/>
-      <c r="L15" s="208">
+      <c r="K15" s="192"/>
+      <c r="L15" s="194">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="210"/>
-      <c r="C16" s="210" t="s">
+      <c r="A16" s="186"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="212"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="208"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="194"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="195"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="211" t="s">
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="212"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="209"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="195"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199" t="s">
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="141"/>
       <c r="J18" s="73">
         <v>0.4</v>
       </c>
@@ -4244,19 +4256,19 @@
       <c r="M18" s="94"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="195"/>
-      <c r="B19" s="201" t="s">
+      <c r="A19" s="187"/>
+      <c r="B19" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="204" t="s">
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
       <c r="J19" s="73">
         <v>0.4</v>
       </c>
@@ -4270,17 +4282,17 @@
       <c r="A20" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
       <c r="K20" s="92"/>
       <c r="L20" s="95"/>
     </row>
@@ -4318,90 +4330,90 @@
       <c r="L22" s="98"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="187"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="209"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="212"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="190"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="212"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="190"/>
+      <c r="A26" s="210"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="212"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="193"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="215"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
       <c r="K29" s="101" t="s">
         <v>83</v>
       </c>
@@ -4411,18 +4423,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
       <c r="K30" s="102" t="s">
         <v>83</v>
       </c>
@@ -4432,18 +4444,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="182" t="s">
+      <c r="A31" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
       <c r="K31" s="102" t="s">
         <v>91</v>
       </c>
@@ -4453,18 +4465,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="216" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
       <c r="K32" s="102" t="s">
         <v>61</v>
       </c>
@@ -4474,21 +4486,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="216" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="182"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="184">
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="221">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="184"/>
+      <c r="J33" s="221"/>
       <c r="K33" s="102" t="s">
         <v>91</v>
       </c>
@@ -4516,14 +4528,14 @@
       <c r="C35" s="96"/>
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
-      <c r="F35" s="179" t="s">
+      <c r="F35" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="181"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="220"/>
       <c r="L35" s="107">
         <f>L34/10</f>
         <v>0</v>
@@ -4634,25 +4646,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="C16:E16"/>
@@ -4662,26 +4675,25 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -4707,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,15 +4734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4796,6 +4799,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -4806,14 +4818,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4830,6 +4834,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
